--- a/vendor/mysql_audo_init/feature_process.xlsx
+++ b/vendor/mysql_audo_init/feature_process.xlsx
@@ -26,220 +26,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>data_identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_loan_agency</t>
+  </si>
+  <si>
+    <t>is_organization_g_black</t>
+  </si>
+  <si>
+    <t>is_netsky_black</t>
+  </si>
+  <si>
+    <t>is_netsky_longloan</t>
+  </si>
+  <si>
+    <t>is_court_shixin</t>
+  </si>
+  <si>
+    <t>is_net_black</t>
+  </si>
+  <si>
+    <t>is_owner_mobile</t>
+  </si>
+  <si>
+    <t>has_negative_info</t>
+  </si>
+  <si>
+    <t>is_court_zhixing</t>
+  </si>
+  <si>
+    <t>mobile_local</t>
+  </si>
+  <si>
+    <t>gps_location</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>is_skyeye_black</t>
+  </si>
+  <si>
+    <t>personal_income_ratio</t>
+  </si>
+  <si>
+    <t>is_netsky_gray</t>
+  </si>
+  <si>
+    <t>mobile_online_time</t>
+  </si>
+  <si>
+    <t>personal_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentg_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_multi_loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyan_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_shixin_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_black_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_mobile_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_info_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_zhixing_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicome_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geo_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>process_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_loan_agency</t>
-  </si>
-  <si>
-    <t>is_organization_g_black</t>
-  </si>
-  <si>
-    <t>is_netsky_black</t>
-  </si>
-  <si>
-    <t>is_netsky_longloan</t>
-  </si>
-  <si>
-    <t>is_court_shixin</t>
-  </si>
-  <si>
-    <t>is_net_black</t>
-  </si>
-  <si>
-    <t>is_owner_mobile</t>
-  </si>
-  <si>
-    <t>has_negative_info</t>
-  </si>
-  <si>
-    <t>is_court_zhixing</t>
-  </si>
-  <si>
-    <t>mobile_local</t>
-  </si>
-  <si>
-    <t>gps_location</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>is_skyeye_black</t>
-  </si>
-  <si>
-    <t>personal_income_ratio</t>
-  </si>
-  <si>
-    <t>is_netsky_gray</t>
-  </si>
-  <si>
-    <t>mobile_online_time</t>
-  </si>
-  <si>
-    <t>personal_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_personal_info/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_agency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_loan_agency/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agentg_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_agentg_black/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_tianwang_black/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_tianwang_multi_loan/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianyan_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_tianyan_black/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_shixin_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_court_shixin_a_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_black_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_net_black_a_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_telecom_mobile_identity_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_unicom_mobile_identity_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_yd_mobile_identity_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china_mobile_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_china_mobile_ability/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_info_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_negative_info_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_tianwang_gray/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_zhixing_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_court_zhixing_a_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_mobile_locale/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_yd_mobile_online_time_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicome_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_unicome_mobile_online_time_s/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_telecom_mobile_online/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geo_location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studio/lp_dataocean_handle/lp_geo_location/Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_personal_info.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_loan_agency.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_agentg_black.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_tianwang_black.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_tianwang_multi_loan.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_tianyan_black.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_court_shixin_a_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_net_black_a_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_telecom_mobile_identity_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_unicom_mobile_identity_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_yd_mobile_identity_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_china_mobile_ability.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_negative_info_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_tianwang_gray.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_court_zhixing_a_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_mobile_locale.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_yd_mobile_online_time_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_unicome_mobile_online_time_s.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_telecom_mobile_online.Handle</t>
+  </si>
+  <si>
+    <t>studio.lp_dataocean_handle.lp_geo_location.Handle</t>
   </si>
 </sst>
 </file>
@@ -612,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -632,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -643,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -657,13 +636,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -671,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -685,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -699,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -713,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -727,13 +706,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -741,13 +720,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -755,13 +734,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -769,13 +748,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -783,13 +762,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -797,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -811,13 +790,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -825,13 +804,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -839,13 +818,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -853,13 +832,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -867,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -881,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -895,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -909,13 +888,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1"/>

--- a/vendor/mysql_audo_init/feature_process.xlsx
+++ b/vendor/mysql_audo_init/feature_process.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>studio.lp_dataocean_handle.lp_geo_location.Handle</t>
+  </si>
+  <si>
+    <t>base_apply_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -897,22 +910,156 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vendor/mysql_audo_init/feature_process.xlsx
+++ b/vendor/mysql_audo_init/feature_process.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,190 +39,217 @@
     <t>is_netsky_black</t>
   </si>
   <si>
-    <t>is_netsky_longloan</t>
-  </si>
-  <si>
     <t>is_court_shixin</t>
   </si>
   <si>
     <t>is_net_black</t>
   </si>
   <si>
-    <t>is_owner_mobile</t>
-  </si>
-  <si>
     <t>has_negative_info</t>
   </si>
   <si>
     <t>is_court_zhixing</t>
   </si>
   <si>
-    <t>mobile_local</t>
-  </si>
-  <si>
-    <t>gps_location</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
     <t>is_skyeye_black</t>
   </si>
   <si>
-    <t>personal_income_ratio</t>
-  </si>
-  <si>
-    <t>is_netsky_gray</t>
-  </si>
-  <si>
-    <t>mobile_online_time</t>
-  </si>
-  <si>
-    <t>personal_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_agency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agentg_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianyan_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_shixin_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_black_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china_mobile_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_info_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_zhixing_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicome_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geo_location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>process_type</t>
   </si>
   <si>
-    <t>studio.lp_dataocean_handle.lp_personal_info.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_loan_agency.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_agentg_black.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_tianwang_black.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_tianwang_multi_loan.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_tianyan_black.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_court_shixin_a_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_net_black_a_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_telecom_mobile_identity_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_unicom_mobile_identity_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_yd_mobile_identity_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_china_mobile_ability.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_negative_info_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_tianwang_gray.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_court_zhixing_a_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_mobile_locale.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_yd_mobile_online_time_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_unicome_mobile_online_time_s.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_telecom_mobile_online.Handle</t>
-  </si>
-  <si>
-    <t>studio.lp_dataocean_handle.lp_geo_location.Handle</t>
-  </si>
-  <si>
-    <t>base_apply_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>mobile_identity</t>
+  </si>
+  <si>
+    <t>online_time</t>
+  </si>
+  <si>
+    <t>income_level</t>
+  </si>
+  <si>
+    <t>income_outcome_comparison</t>
+  </si>
+  <si>
+    <t>cur_corp_years</t>
+  </si>
+  <si>
+    <t>cur_employee_number</t>
+  </si>
+  <si>
+    <t>is_jiuyao_multi_loan</t>
+  </si>
+  <si>
+    <t>jiuyao_multi_loan_denied_count</t>
+  </si>
+  <si>
+    <t>loan_infos</t>
+  </si>
+  <si>
+    <t>loan_infos__borrow_state</t>
+  </si>
+  <si>
+    <t>loan_infos__contract_date</t>
+  </si>
+  <si>
+    <t>loan_infos__repay_state</t>
+  </si>
+  <si>
+    <t>mobile_area_city_level</t>
+  </si>
+  <si>
+    <t>register_city_level</t>
+  </si>
+  <si>
+    <t>airfare_sum_12</t>
+  </si>
+  <si>
+    <t>max_flight_area</t>
+  </si>
+  <si>
+    <t>max_flight_class</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>is_cur_corp_shixin</t>
+  </si>
+  <si>
+    <t>overspeed_count</t>
+  </si>
+  <si>
+    <t>overload_count</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>gps_city_code</t>
+  </si>
+  <si>
+    <t>application_on</t>
+  </si>
+  <si>
+    <t>apply_register_duration</t>
+  </si>
+  <si>
+    <t>complete_degree</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>cur_work_status</t>
+  </si>
+  <si>
+    <t>education_degree_code</t>
+  </si>
+  <si>
+    <t>education_tz</t>
+  </si>
+  <si>
+    <t>graduate_college</t>
+  </si>
+  <si>
+    <t>industry_change_count</t>
+  </si>
+  <si>
+    <t>is_unclear_loan</t>
+  </si>
+  <si>
+    <t>last_industry_code</t>
+  </si>
+  <si>
+    <t>now_industry_code</t>
+  </si>
+  <si>
+    <t>now_work_time</t>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>is_mobile_black</t>
+  </si>
+  <si>
+    <t>mobile_activeness</t>
+  </si>
+  <si>
+    <t>mobile_stability</t>
+  </si>
+  <si>
+    <t>mobile_mark</t>
+  </si>
+  <si>
+    <t>is_pingan_multi_loan</t>
+  </si>
+  <si>
+    <t>pingan_multi_loan_infos</t>
+  </si>
+  <si>
+    <t>pingan_multi_loan_count</t>
+  </si>
+  <si>
+    <t>is_pingan_financial_shixin</t>
+  </si>
+  <si>
+    <t>is_pingan_other_loan</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_count</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_infos</t>
+  </si>
+  <si>
+    <t>is_pingan_overdue_loan</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__longestDays</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__recordNums</t>
+  </si>
+  <si>
+    <t>cc_bill_age</t>
+  </si>
+  <si>
+    <t>creditcard_count</t>
+  </si>
+  <si>
+    <t>dc_bill_age</t>
+  </si>
+  <si>
+    <t>car_count</t>
+  </si>
+  <si>
+    <t>mobile_area_code</t>
+  </si>
+  <si>
+    <t>is_netsky_multi_loan</t>
+  </si>
+  <si>
+    <t>is_netsky_grey</t>
+  </si>
+  <si>
+    <t>college_type</t>
+  </si>
+  <si>
+    <t>education_degree_check</t>
+  </si>
+  <si>
+    <t>graduate_college_check</t>
+  </si>
+  <si>
+    <t>now_workplace_code</t>
   </si>
 </sst>
 </file>
@@ -602,10 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -635,431 +663,737 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
+      <c r="C56" s="5"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vendor/mysql_audo_init/feature_process.xlsx
+++ b/vendor/mysql_audo_init/feature_process.xlsx
@@ -11,245 +11,663 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>feature_name</t>
+    <t>is_loan_agency</t>
+  </si>
+  <si>
+    <t>is_organization_g_black</t>
+  </si>
+  <si>
+    <t>is_netsky_black</t>
+  </si>
+  <si>
+    <t>is_court_shixin</t>
+  </si>
+  <si>
+    <t>is_net_black</t>
+  </si>
+  <si>
+    <t>has_negative_info</t>
+  </si>
+  <si>
+    <t>is_court_zhixing</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>is_skyeye_black</t>
+  </si>
+  <si>
+    <t>mobile_identity</t>
+  </si>
+  <si>
+    <t>online_time</t>
+  </si>
+  <si>
+    <t>income_level</t>
+  </si>
+  <si>
+    <t>cur_corp_years</t>
+  </si>
+  <si>
+    <t>cur_employee_number</t>
+  </si>
+  <si>
+    <t>is_jiuyao_multi_loan</t>
+  </si>
+  <si>
+    <t>jiuyao_multi_loan_denied_count</t>
+  </si>
+  <si>
+    <t>loan_infos</t>
+  </si>
+  <si>
+    <t>loan_infos__borrow_state</t>
+  </si>
+  <si>
+    <t>loan_infos__contract_date</t>
+  </si>
+  <si>
+    <t>loan_infos__repay_state</t>
+  </si>
+  <si>
+    <t>airfare_sum_12</t>
+  </si>
+  <si>
+    <t>max_flight_area</t>
+  </si>
+  <si>
+    <t>max_flight_class</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>is_cur_corp_shixin</t>
+  </si>
+  <si>
+    <t>overspeed_count</t>
+  </si>
+  <si>
+    <t>overload_count</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>gps_city_code</t>
+  </si>
+  <si>
+    <t>application_on</t>
+  </si>
+  <si>
+    <t>apply_register_duration</t>
+  </si>
+  <si>
+    <t>complete_degree</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>cur_work_status</t>
+  </si>
+  <si>
+    <t>education_degree_code</t>
+  </si>
+  <si>
+    <t>education_tz</t>
+  </si>
+  <si>
+    <t>graduate_college</t>
+  </si>
+  <si>
+    <t>industry_change_count</t>
+  </si>
+  <si>
+    <t>is_unclear_loan</t>
+  </si>
+  <si>
+    <t>last_industry_code</t>
+  </si>
+  <si>
+    <t>now_industry_code</t>
+  </si>
+  <si>
+    <t>now_work_time</t>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>is_mobile_black</t>
+  </si>
+  <si>
+    <t>mobile_activeness</t>
+  </si>
+  <si>
+    <t>mobile_stability</t>
+  </si>
+  <si>
+    <t>mobile_mark</t>
+  </si>
+  <si>
+    <t>is_pingan_multi_loan</t>
+  </si>
+  <si>
+    <t>pingan_multi_loan_infos</t>
+  </si>
+  <si>
+    <t>pingan_multi_loan_count</t>
+  </si>
+  <si>
+    <t>is_pingan_financial_shixin</t>
+  </si>
+  <si>
+    <t>is_pingan_other_loan</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_count</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_infos</t>
+  </si>
+  <si>
+    <t>is_pingan_overdue_loan</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__longestDays</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__recordNums</t>
+  </si>
+  <si>
+    <t>cc_bill_age</t>
+  </si>
+  <si>
+    <t>creditcard_count</t>
+  </si>
+  <si>
+    <t>dc_bill_age</t>
+  </si>
+  <si>
+    <t>car_count</t>
+  </si>
+  <si>
+    <t>mobile_area_code</t>
+  </si>
+  <si>
+    <t>is_netsky_multi_loan</t>
+  </si>
+  <si>
+    <t>is_netsky_grey</t>
+  </si>
+  <si>
+    <t>college_type</t>
+  </si>
+  <si>
+    <t>education_degree_check</t>
+  </si>
+  <si>
+    <t>graduate_college_check</t>
+  </si>
+  <si>
+    <t>now_workplace_code</t>
+  </si>
+  <si>
+    <t>pingan_overdue_count</t>
+  </si>
+  <si>
+    <t>pingan_max_overdue_days</t>
+  </si>
+  <si>
+    <t>jiuyao_multi_loan_m2_count</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>loan_infos__borrow_type</t>
+  </si>
+  <si>
+    <t>loan_infos__borrow_amount</t>
+  </si>
+  <si>
+    <t>loan_infos__loan_period</t>
+  </si>
+  <si>
+    <t>loan_infos__arrears_amount</t>
+  </si>
+  <si>
+    <t>car_number</t>
+  </si>
+  <si>
+    <t>pingan_overdue_corp_count</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__phone</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__imsi</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__imei</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__record</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__matchType</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__matchValue</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__matchId</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__classification</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__M3</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__bankLoan</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__orgNums</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__maxAmount</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__bankCredit</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__otherLoan</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__otherCredit</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__M6</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__M9</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__M12</t>
+  </si>
+  <si>
+    <t>pingan_overdue_loan_infos__M24</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_infos__orgNums</t>
+  </si>
+  <si>
+    <t>pingan_other_loan_infos__queryNums</t>
+  </si>
+  <si>
+    <t>income_expense_comparison</t>
+  </si>
+  <si>
+    <t>cur_company</t>
+  </si>
+  <si>
+    <t>is_recruitment</t>
+  </si>
+  <si>
+    <t>data_identity(特征处理用的数据源标识)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_identity</t>
+    <t>特征名儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_loan_agency</t>
-  </si>
-  <si>
-    <t>is_organization_g_black</t>
-  </si>
-  <si>
-    <t>is_netsky_black</t>
-  </si>
-  <si>
-    <t>is_court_shixin</t>
-  </si>
-  <si>
-    <t>is_net_black</t>
-  </si>
-  <si>
-    <t>has_negative_info</t>
-  </si>
-  <si>
-    <t>is_court_zhixing</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>is_skyeye_black</t>
-  </si>
-  <si>
-    <t>process_type</t>
-  </si>
-  <si>
-    <t>mobile_identity</t>
-  </si>
-  <si>
-    <t>online_time</t>
-  </si>
-  <si>
-    <t>income_level</t>
-  </si>
-  <si>
-    <t>income_outcome_comparison</t>
-  </si>
-  <si>
-    <t>cur_corp_years</t>
-  </si>
-  <si>
-    <t>cur_employee_number</t>
-  </si>
-  <si>
-    <t>is_jiuyao_multi_loan</t>
-  </si>
-  <si>
-    <t>jiuyao_multi_loan_denied_count</t>
-  </si>
-  <si>
-    <t>loan_infos</t>
-  </si>
-  <si>
-    <t>loan_infos__borrow_state</t>
-  </si>
-  <si>
-    <t>loan_infos__contract_date</t>
-  </si>
-  <si>
-    <t>loan_infos__repay_state</t>
-  </si>
-  <si>
-    <t>mobile_area_city_level</t>
-  </si>
-  <si>
-    <t>register_city_level</t>
-  </si>
-  <si>
-    <t>airfare_sum_12</t>
-  </si>
-  <si>
-    <t>max_flight_area</t>
-  </si>
-  <si>
-    <t>max_flight_class</t>
-  </si>
-  <si>
-    <t>folk</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>is_cur_corp_shixin</t>
-  </si>
-  <si>
-    <t>overspeed_count</t>
-  </si>
-  <si>
-    <t>overload_count</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>gps_city_code</t>
-  </si>
-  <si>
-    <t>application_on</t>
-  </si>
-  <si>
-    <t>apply_register_duration</t>
-  </si>
-  <si>
-    <t>complete_degree</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>cur_work_status</t>
-  </si>
-  <si>
-    <t>education_degree_code</t>
-  </si>
-  <si>
-    <t>education_tz</t>
-  </si>
-  <si>
-    <t>graduate_college</t>
-  </si>
-  <si>
-    <t>industry_change_count</t>
-  </si>
-  <si>
-    <t>is_unclear_loan</t>
-  </si>
-  <si>
-    <t>last_industry_code</t>
-  </si>
-  <si>
-    <t>now_industry_code</t>
-  </si>
-  <si>
-    <t>now_work_time</t>
-  </si>
-  <si>
-    <t>work_time</t>
-  </si>
-  <si>
-    <t>is_mobile_black</t>
-  </si>
-  <si>
-    <t>mobile_activeness</t>
-  </si>
-  <si>
-    <t>mobile_stability</t>
-  </si>
-  <si>
-    <t>mobile_mark</t>
-  </si>
-  <si>
-    <t>is_pingan_multi_loan</t>
-  </si>
-  <si>
-    <t>pingan_multi_loan_infos</t>
-  </si>
-  <si>
-    <t>pingan_multi_loan_count</t>
-  </si>
-  <si>
-    <t>is_pingan_financial_shixin</t>
-  </si>
-  <si>
-    <t>is_pingan_other_loan</t>
-  </si>
-  <si>
-    <t>pingan_other_loan_count</t>
-  </si>
-  <si>
-    <t>pingan_other_loan_infos</t>
-  </si>
-  <si>
-    <t>is_pingan_overdue_loan</t>
-  </si>
-  <si>
-    <t>pingan_overdue_loan_infos</t>
-  </si>
-  <si>
-    <t>pingan_overdue_loan_infos__longestDays</t>
-  </si>
-  <si>
-    <t>pingan_overdue_loan_infos__recordNums</t>
-  </si>
-  <si>
-    <t>cc_bill_age</t>
-  </si>
-  <si>
-    <t>creditcard_count</t>
-  </si>
-  <si>
-    <t>dc_bill_age</t>
-  </si>
-  <si>
-    <t>car_count</t>
-  </si>
-  <si>
-    <t>mobile_area_code</t>
-  </si>
-  <si>
-    <t>is_netsky_multi_loan</t>
-  </si>
-  <si>
-    <t>is_netsky_grey</t>
-  </si>
-  <si>
-    <t>college_type</t>
-  </si>
-  <si>
-    <t>education_degree_check</t>
-  </si>
-  <si>
-    <t>graduate_college_check</t>
-  </si>
-  <si>
-    <t>now_workplace_code</t>
+    <t>特征文件名儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lp_is_loan_agency</t>
+  </si>
+  <si>
+    <t>lp_is_organization_g_black</t>
+  </si>
+  <si>
+    <t>lp_is_netsky_black</t>
+  </si>
+  <si>
+    <t>lp_is_netsky_multi_loan</t>
+  </si>
+  <si>
+    <t>lp_is_skyeye_black</t>
+  </si>
+  <si>
+    <t>lp_is_court_shixin</t>
+  </si>
+  <si>
+    <t>lp_is_net_black</t>
+  </si>
+  <si>
+    <t>lp_has_negative_info</t>
+  </si>
+  <si>
+    <t>lp_is_netsky_grey</t>
+  </si>
+  <si>
+    <t>lp_is_court_zhixing</t>
+  </si>
+  <si>
+    <t>lp_online_time</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_count</t>
+  </si>
+  <si>
+    <t>lp_pingan_max_overdue_days</t>
+  </si>
+  <si>
+    <t>lp_is_pingan_financial_shixin</t>
+  </si>
+  <si>
+    <t>lp_jiuyao_multi_loan_denied_count</t>
+  </si>
+  <si>
+    <t>lp_jiuyao_multi_loan_m2_count</t>
+  </si>
+  <si>
+    <t>lp_name</t>
+  </si>
+  <si>
+    <t>lp_card_id</t>
+  </si>
+  <si>
+    <t>lp_mobile</t>
+  </si>
+  <si>
+    <t>lp_age</t>
+  </si>
+  <si>
+    <t>lp_is_unclear_loan</t>
+  </si>
+  <si>
+    <t>lp_apply_register_duration</t>
+  </si>
+  <si>
+    <t>lp_complete_degree</t>
+  </si>
+  <si>
+    <t>lp_gps_city_code</t>
+  </si>
+  <si>
+    <t>lp_mobile_area_code</t>
+  </si>
+  <si>
+    <t>lp_is_pingan_multi_loan</t>
+  </si>
+  <si>
+    <t>lp_pingan_multi_loan_count</t>
+  </si>
+  <si>
+    <t>lp_mobile_mark</t>
+  </si>
+  <si>
+    <t>lp_cur_work_status</t>
+  </si>
+  <si>
+    <t>lp_now_workplace_code</t>
+  </si>
+  <si>
+    <t>lp_mobile_identity</t>
+  </si>
+  <si>
+    <t>lp_work_time</t>
+  </si>
+  <si>
+    <t>lp_education_degree_code</t>
+  </si>
+  <si>
+    <t>lp_education_tz</t>
+  </si>
+  <si>
+    <t>lp_now_industry_code</t>
+  </si>
+  <si>
+    <t>lp_last_industry_code</t>
+  </si>
+  <si>
+    <t>lp_now_work_time</t>
+  </si>
+  <si>
+    <t>lp_industry_change_count</t>
+  </si>
+  <si>
+    <t>lp_is_mobile_black</t>
+  </si>
+  <si>
+    <t>lp_mobile_stability</t>
+  </si>
+  <si>
+    <t>lp_mobile_activeness</t>
+  </si>
+  <si>
+    <t>lp_loan_infos</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__borrow_type</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__borrow_state</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__borrow_amount</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__contract_date</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__loan_period</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__repay_state</t>
+  </si>
+  <si>
+    <t>lp_loan_infos__arrears_amount</t>
+  </si>
+  <si>
+    <t>lp_is_jiuyao_multi_loan</t>
+  </si>
+  <si>
+    <t>lp_contacts</t>
+  </si>
+  <si>
+    <t>lp_dc_bill_age</t>
+  </si>
+  <si>
+    <t>lp_cc_bill_age</t>
+  </si>
+  <si>
+    <t>lp_creditcard_count</t>
+  </si>
+  <si>
+    <t>lp_car_count</t>
+  </si>
+  <si>
+    <t>lp_application_on</t>
+  </si>
+  <si>
+    <t>lp_pingan_multi_loan_infos</t>
+  </si>
+  <si>
+    <t>lp_car_number</t>
+  </si>
+  <si>
+    <t>lp_overspeed_count</t>
+  </si>
+  <si>
+    <t>lp_overload_count</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_corp_count</t>
+  </si>
+  <si>
+    <t>lp_pingan_other_loan_count</t>
+  </si>
+  <si>
+    <t>lp_is_pingan_overdue_loan</t>
+  </si>
+  <si>
+    <t>lp_is_pingan_other_loan</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__phone</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__imsi</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__imei</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__record</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__matchType</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__matchValue</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__matchId</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__classification</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__M3</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__bankLoan</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__recordNums</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__orgNums</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__maxAmount</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__longestDays</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__bankCredit</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__otherLoan</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__otherCredit</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__M6</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__M9</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__M12</t>
+  </si>
+  <si>
+    <t>lp_pingan_overdue_loan_infos__M24</t>
+  </si>
+  <si>
+    <t>lp_pingan_other_loan_infos</t>
+  </si>
+  <si>
+    <t>lp_pingan_other_loan_infos__orgNums</t>
+  </si>
+  <si>
+    <t>lp_pingan_other_loan_infos__queryNums</t>
+  </si>
+  <si>
+    <t>lp_airfare_sum_12</t>
+  </si>
+  <si>
+    <t>lp_max_flight_class</t>
+  </si>
+  <si>
+    <t>lp_max_flight_area</t>
+  </si>
+  <si>
+    <t>lp_income_level</t>
+  </si>
+  <si>
+    <t>lp_income_expense_comparison</t>
+  </si>
+  <si>
+    <t>lp_graduate_college</t>
+  </si>
+  <si>
+    <t>lp_gender</t>
+  </si>
+  <si>
+    <t>lp_marital_status</t>
+  </si>
+  <si>
+    <t>lp_folk</t>
+  </si>
+  <si>
+    <t>lp_cur_company</t>
+  </si>
+  <si>
+    <t>lp_cur_corp_years</t>
+  </si>
+  <si>
+    <t>lp_cur_employee_number</t>
+  </si>
+  <si>
+    <t>lp_is_cur_corp_shixin</t>
+  </si>
+  <si>
+    <t>lp_education_degree_check</t>
+  </si>
+  <si>
+    <t>lp_college_type</t>
+  </si>
+  <si>
+    <t>lp_graduate_college_check</t>
+  </si>
+  <si>
+    <t>lp_is_recruitment</t>
   </si>
 </sst>
 </file>
@@ -316,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,11 +747,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,771 +1044,1307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+      <c r="B76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
